--- a/Formula Excel Template.xlsx
+++ b/Formula Excel Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shona\OneDrive\Documents\Data Analysis Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james_6mutpus\Documents\Data Analysis Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E955AF04-3D30-43F7-AFB6-A3A6DB48852A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E78B03-66A6-4565-B451-E949BC26FECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -43,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="91">
   <si>
     <t>FirstName</t>
   </si>
@@ -308,6 +330,15 @@
   </si>
   <si>
     <t>Right</t>
+  </si>
+  <si>
+    <t>30/8/2017</t>
+  </si>
+  <si>
+    <t>22/4/2015</t>
+  </si>
+  <si>
+    <t>22/4/2105</t>
   </si>
 </sst>
 </file>
@@ -672,17 +703,17 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -717,7 +748,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -748,7 +779,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -777,7 +808,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -806,7 +837,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -835,7 +866,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -864,7 +895,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -893,7 +924,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -922,7 +953,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -951,7 +982,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -993,20 +1024,20 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1066,8 +1097,12 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J2" t="str">
+        <f>CONCATENATE(B2," ",C2)</f>
+        <v>Jim Halpert</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1095,8 +1130,12 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">CONCATENATE(B3," ",C3)</f>
+        <v>Pam Beasley</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1124,8 +1163,12 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>Dwight Schrute</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1153,8 +1196,12 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela Martin</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1182,8 +1229,12 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Toby Flenderson</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1211,8 +1262,12 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael Scott</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1240,8 +1295,12 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Meredith Palmer</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1269,8 +1328,12 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Stanley Hudson</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1298,16 +1361,20 @@
       <c r="I10" s="1">
         <v>40800</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Kevin Malone</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H11" t="str">
-        <f t="shared" ref="H11:H12" si="0">CONCATENATE(B11," ",C11)</f>
+        <f t="shared" ref="H11:H12" si="1">CONCATENATE(B11," ",C11)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1323,17 +1390,18 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1355,10 +1423,10 @@
       <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J1" t="s">
@@ -1368,7 +1436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1396,8 +1464,16 @@
       <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <f>_xlfn.DAYS(I2,H2)</f>
+        <v>5231</v>
+      </c>
+      <c r="K2">
+        <f>NETWORKDAYS(H2,I2)</f>
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1425,8 +1501,16 @@
       <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="0">_xlfn.DAYS(I3,H3)</f>
+        <v>6058</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="1">NETWORKDAYS(H3,I3)</f>
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1454,8 +1538,16 @@
       <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>6333</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1483,8 +1575,16 @@
       <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5428</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1510,10 +1610,18 @@
         <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5930</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1541,8 +1649,16 @@
       <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4540</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1570,8 +1686,16 @@
       <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3743</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1597,10 +1721,18 @@
         <v>54</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>4611</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1626,7 +1758,15 @@
         <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>37086</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>26491</v>
       </c>
     </row>
   </sheetData>
@@ -1645,14 +1785,14 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" customWidth="1"/>
-    <col min="11" max="11" width="18.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1687,7 +1827,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1716,7 +1856,7 @@
         <v>42253</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1745,7 +1885,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1774,7 +1914,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1803,7 +1943,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1832,7 +1972,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1861,7 +2001,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1890,7 +2030,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1919,7 +2059,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1964,12 +2104,12 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2004,7 +2144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2033,7 +2173,7 @@
         <v>42253</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2062,7 +2202,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2091,7 +2231,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2120,7 +2260,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2149,7 +2289,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2178,7 +2318,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2207,7 +2347,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2236,7 +2376,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2275,19 +2415,19 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="10" max="10" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2324,11 +2464,8 @@
       <c r="L1" t="s">
         <v>87</v>
       </c>
-      <c r="M1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2359,8 +2496,16 @@
       <c r="J2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K2" t="str">
+        <f>LEFT(J2,3)</f>
+        <v>Jim</v>
+      </c>
+      <c r="L2" t="str">
+        <f>RIGHT(J2,3)</f>
+        <v>com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2391,8 +2536,16 @@
       <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K10" si="0">LEFT(J3,3)</f>
+        <v>Pam</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L10" si="1">RIGHT(J3,3)</f>
+        <v>com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2423,8 +2576,16 @@
       <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>Dwi</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2455,8 +2616,16 @@
       <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>Ang</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2487,8 +2656,16 @@
       <c r="J6" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>Tob</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2519,8 +2696,16 @@
       <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>Mic</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2551,8 +2736,16 @@
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>Mer</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2583,8 +2776,16 @@
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>Sta</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2614,6 +2815,14 @@
       </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>Kev</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>com</v>
       </c>
     </row>
   </sheetData>
@@ -2629,16 +2838,16 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2670,7 +2879,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2698,9 +2907,13 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" t="str">
+        <f>TEXT(H2, "dd/mm/yyyy")</f>
+        <v>02/11/2001</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2728,9 +2941,13 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">TEXT(H3, "dd/mm/yyyy")</f>
+        <v>03/10/1999</v>
+      </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2758,9 +2975,13 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>04/07/2000</v>
+      </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2788,9 +3009,13 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>05/01/2000</v>
+      </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2818,9 +3043,13 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>06/05/2001</v>
+      </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2848,9 +3077,13 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>07/12/1995</v>
+      </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2878,9 +3111,13 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>08/11/2003</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2908,9 +3145,13 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>09/06/2002</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2938,12 +3179,16 @@
       <c r="I10" s="1">
         <v>40800</v>
       </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>10/08/2003</v>
+      </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
     </row>
   </sheetData>
@@ -2959,16 +3204,16 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3003,7 +3248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3031,8 +3276,12 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J2" t="str">
+        <f>TRIM(C2)</f>
+        <v>Halpert</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3060,8 +3309,12 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">TRIM(C3)</f>
+        <v>Beasley</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3089,8 +3342,12 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>Schrute</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3118,8 +3375,12 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>Martin</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3147,8 +3408,12 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Flenderson</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3176,8 +3441,12 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scott</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3205,8 +3474,12 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Palmer</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3234,8 +3507,12 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Hudson</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3262,6 +3539,10 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Malone</v>
       </c>
     </row>
   </sheetData>
@@ -3277,16 +3558,16 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3324,7 +3605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3352,8 +3633,20 @@
       <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">SUBSTITUTE(H2:H10, "/", "-", 1)</f>
+        <v>11-2/2001</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">SUBSTITUTE(H2:H10, "/", "-", 2)</f>
+        <v>11/2-2001</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">SUBSTITUTE(H2:H10, "-", "/")</f>
+        <v>11/2/2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3381,8 +3674,17 @@
       <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J3" t="str">
+        <v>10-3/1999</v>
+      </c>
+      <c r="K3" t="str">
+        <v>10/3-1999</v>
+      </c>
+      <c r="L3" t="str">
+        <v>10/3/1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3410,8 +3712,17 @@
       <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J4" t="str">
+        <v>7-4/2000</v>
+      </c>
+      <c r="K4" t="str">
+        <v>7/4-2000</v>
+      </c>
+      <c r="L4" t="str">
+        <v>7/4/2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3439,8 +3750,17 @@
       <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J5" t="str">
+        <v>1-5/2000</v>
+      </c>
+      <c r="K5" t="str">
+        <v>1/5-2000</v>
+      </c>
+      <c r="L5" t="str">
+        <v>1/5/2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3468,8 +3788,17 @@
       <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J6" t="str">
+        <v>5-6/2001</v>
+      </c>
+      <c r="K6" t="str">
+        <v>5/6-2001</v>
+      </c>
+      <c r="L6" t="str">
+        <v>5/6/2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3497,8 +3826,17 @@
       <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J7" t="str">
+        <v>5-6/2001</v>
+      </c>
+      <c r="K7" t="str">
+        <v>5/6-2001</v>
+      </c>
+      <c r="L7" t="str">
+        <v>5/6/2001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3526,8 +3864,17 @@
       <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J8" t="str">
+        <v>11-8/2003</v>
+      </c>
+      <c r="K8" t="str">
+        <v>11/8-2003</v>
+      </c>
+      <c r="L8" t="str">
+        <v>11/8/2003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3555,8 +3902,17 @@
       <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J9" t="str">
+        <v>6-9/2002</v>
+      </c>
+      <c r="K9" t="str">
+        <v>6/9-2002</v>
+      </c>
+      <c r="L9" t="str">
+        <v>6/9/2002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3584,40 +3940,49 @@
       <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J10" t="str">
+        <v>8-10/2003</v>
+      </c>
+      <c r="K10" t="str">
+        <v>8/10-2003</v>
+      </c>
+      <c r="L10" t="str">
+        <v>8/10/2003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
@@ -3635,12 +4000,12 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3678,7 +4043,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3706,8 +4071,20 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <f>SUM(G2:G10)</f>
+        <v>437000</v>
+      </c>
+      <c r="K2">
+        <f>SUMIF(G2:G10,"&gt;50000")</f>
+        <v>128000</v>
+      </c>
+      <c r="L2">
+        <f>SUMIFS(G2:G10, E2:E10, "Female", D2:D10, "&gt;30")</f>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3736,7 +4113,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3765,7 +4142,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3794,7 +4171,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3823,7 +4200,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3852,7 +4229,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3881,7 +4258,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3910,7 +4287,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3952,16 +4329,16 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3999,7 +4376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -4027,8 +4404,20 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <f>COUNT(G2:G10)</f>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(G2:G10, "&gt;45000")</f>
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS(G2:G10, "&gt;35000", E2:E10, "Male")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -4057,7 +4446,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -4086,7 +4475,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -4115,7 +4504,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -4144,7 +4533,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4173,7 +4562,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4202,7 +4591,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4231,7 +4620,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
